--- a/Copy of OTJ Tracker Paul Todd.xlsx
+++ b/Copy of OTJ Tracker Paul Todd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://btgroupcloud-my.sharepoint.com/personal/mark_todd_ee_co_uk/Documents/Desktop/BPP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{6DA14171-0ADE-4CEB-A8AB-178B3D40383C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA1B6D6E-42E7-4E68-ACE1-7189997F91B6}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{6DA14171-0ADE-4CEB-A8AB-178B3D40383C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B80A4108-23DB-49B7-AFA4-82E15C494FEB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OTJT Log" sheetId="1" r:id="rId1"/>
@@ -2211,11 +2211,41 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2225,6 +2255,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2265,60 +2301,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2339,6 +2321,24 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2769,7 +2769,7 @@
   <dimension ref="A1:AP312"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E19" sqref="E19:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2834,12 +2834,12 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="169"/>
-      <c r="L2" s="169"/>
-      <c r="M2" s="169"/>
-      <c r="N2" s="169"/>
-      <c r="O2" s="170"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="160"/>
+      <c r="O2" s="161"/>
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="2"/>
@@ -2870,14 +2870,14 @@
     </row>
     <row r="3" spans="1:42" ht="220.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="150" t="s">
+      <c r="B3" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="151"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="166"/>
       <c r="H3" s="1"/>
       <c r="I3" s="2"/>
       <c r="J3" s="54"/>
@@ -2975,14 +2975,14 @@
       <c r="G5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="167"/>
+      <c r="H5" s="179"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="152"/>
-      <c r="K5" s="153"/>
-      <c r="L5" s="153"/>
-      <c r="M5" s="153"/>
-      <c r="N5" s="153"/>
-      <c r="O5" s="154"/>
+      <c r="J5" s="162"/>
+      <c r="K5" s="163"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="163"/>
+      <c r="N5" s="163"/>
+      <c r="O5" s="164"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -3030,7 +3030,7 @@
         <f t="shared" ref="G6:G18" si="0">IF(NOT(ISBLANK(D6)), SUM(E6:F6), 0)</f>
         <v>4</v>
       </c>
-      <c r="H6" s="167"/>
+      <c r="H6" s="179"/>
       <c r="I6" s="2"/>
       <c r="J6" s="145"/>
       <c r="K6" s="145"/>
@@ -3085,7 +3085,7 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H7" s="167"/>
+      <c r="H7" s="179"/>
       <c r="I7" s="4"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -3140,7 +3140,7 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H8" s="167"/>
+      <c r="H8" s="179"/>
       <c r="I8" s="4"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -3182,18 +3182,20 @@
         <v>261</v>
       </c>
       <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
+      <c r="D9" s="83">
+        <v>45687</v>
+      </c>
       <c r="E9" s="58">
         <v>27</v>
       </c>
       <c r="F9" s="141">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G9" s="140">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="167"/>
+        <v>62</v>
+      </c>
+      <c r="H9" s="179"/>
       <c r="I9" s="4"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -3246,7 +3248,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="167"/>
+      <c r="H10" s="179"/>
       <c r="I10" s="4"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -3299,7 +3301,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="167"/>
+      <c r="H11" s="179"/>
       <c r="I11" s="4"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -3352,7 +3354,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="167"/>
+      <c r="H12" s="179"/>
       <c r="I12" s="4"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -3405,7 +3407,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="167"/>
+      <c r="H13" s="179"/>
       <c r="I13" s="4"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -3458,7 +3460,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="167"/>
+      <c r="H14" s="179"/>
       <c r="I14" s="4"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -3511,7 +3513,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="167"/>
+      <c r="H15" s="179"/>
       <c r="I15" s="4"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -3564,7 +3566,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="167"/>
+      <c r="H16" s="179"/>
       <c r="I16" s="4"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -3617,14 +3619,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="167"/>
+      <c r="H17" s="179"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="152"/>
-      <c r="K17" s="153"/>
-      <c r="L17" s="153"/>
-      <c r="M17" s="153"/>
-      <c r="N17" s="153"/>
-      <c r="O17" s="154"/>
+      <c r="J17" s="162"/>
+      <c r="K17" s="163"/>
+      <c r="L17" s="163"/>
+      <c r="M17" s="163"/>
+      <c r="N17" s="163"/>
+      <c r="O17" s="164"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -3670,7 +3672,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H18" s="167"/>
+      <c r="H18" s="179"/>
       <c r="I18" s="4"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -3719,13 +3721,13 @@
       </c>
       <c r="F19" s="143">
         <f>SUM(F7:F18)</f>
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="G19" s="144">
         <f>SUM(G6:G18)</f>
-        <v>68</v>
-      </c>
-      <c r="H19" s="167"/>
+        <v>130</v>
+      </c>
+      <c r="H19" s="179"/>
       <c r="I19" s="4"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -3875,14 +3877,14 @@
         <f>IF(NOT(ISBLANK(D22)), SUM(E22:F22), 0)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="175"/>
+      <c r="H22" s="151"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="152"/>
-      <c r="K22" s="153"/>
-      <c r="L22" s="153"/>
-      <c r="M22" s="153"/>
-      <c r="N22" s="153"/>
-      <c r="O22" s="154"/>
+      <c r="J22" s="162"/>
+      <c r="K22" s="163"/>
+      <c r="L22" s="163"/>
+      <c r="M22" s="163"/>
+      <c r="N22" s="163"/>
+      <c r="O22" s="164"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
@@ -3926,7 +3928,7 @@
         <f>IF(NOT(ISBLANK(D23)), SUM(E23:F23), 0)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="175"/>
+      <c r="H23" s="151"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -3977,7 +3979,7 @@
         <f>IF(NOT(ISBLANK(D24)), SUM(E24:F24), 0)</f>
         <v>0</v>
       </c>
-      <c r="H24" s="175"/>
+      <c r="H24" s="151"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -4028,7 +4030,7 @@
         <f>IF(NOT(ISBLANK(D25)), SUM(E25:F25), 0)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="175"/>
+      <c r="H25" s="151"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -4079,7 +4081,7 @@
         <f>IF(NOT(ISBLANK(D26)), SUM(E26:F26), 0)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="175"/>
+      <c r="H26" s="151"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -4123,7 +4125,7 @@
       <c r="E27" s="58"/>
       <c r="F27" s="58"/>
       <c r="G27" s="58"/>
-      <c r="H27" s="175"/>
+      <c r="H27" s="151"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -4178,7 +4180,7 @@
         <f>SUM(G22:H27)</f>
         <v>0</v>
       </c>
-      <c r="H28" s="175"/>
+      <c r="H28" s="151"/>
       <c r="I28" s="4"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -4216,20 +4218,20 @@
     </row>
     <row r="29" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
-      <c r="B29" s="161"/>
-      <c r="C29" s="162"/>
-      <c r="D29" s="162"/>
-      <c r="E29" s="162"/>
-      <c r="F29" s="162"/>
-      <c r="G29" s="162"/>
-      <c r="H29" s="163"/>
+      <c r="B29" s="173"/>
+      <c r="C29" s="174"/>
+      <c r="D29" s="174"/>
+      <c r="E29" s="174"/>
+      <c r="F29" s="174"/>
+      <c r="G29" s="174"/>
+      <c r="H29" s="175"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="152"/>
-      <c r="K29" s="153"/>
-      <c r="L29" s="153"/>
-      <c r="M29" s="153"/>
-      <c r="N29" s="153"/>
-      <c r="O29" s="154"/>
+      <c r="J29" s="162"/>
+      <c r="K29" s="163"/>
+      <c r="L29" s="163"/>
+      <c r="M29" s="163"/>
+      <c r="N29" s="163"/>
+      <c r="O29" s="164"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
@@ -4267,12 +4269,12 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="158"/>
-      <c r="K30" s="159"/>
-      <c r="L30" s="159"/>
-      <c r="M30" s="159"/>
-      <c r="N30" s="159"/>
-      <c r="O30" s="160"/>
+      <c r="J30" s="170"/>
+      <c r="K30" s="171"/>
+      <c r="L30" s="171"/>
+      <c r="M30" s="171"/>
+      <c r="N30" s="171"/>
+      <c r="O30" s="172"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
@@ -4303,13 +4305,13 @@
     </row>
     <row r="31" spans="1:42" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-      <c r="B31" s="164" t="s">
+      <c r="B31" s="176" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="165"/>
-      <c r="D31" s="165"/>
-      <c r="E31" s="165"/>
-      <c r="F31" s="166"/>
+      <c r="C31" s="177"/>
+      <c r="D31" s="177"/>
+      <c r="E31" s="177"/>
+      <c r="F31" s="178"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -4489,23 +4491,23 @@
       <c r="D35" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="172" t="s">
+      <c r="E35" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="172"/>
+      <c r="F35" s="156"/>
       <c r="G35" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="H35" s="176" t="s">
+      <c r="H35" s="152" t="s">
         <v>39</v>
       </c>
       <c r="I35" s="4"/>
-      <c r="J35" s="152"/>
-      <c r="K35" s="153"/>
-      <c r="L35" s="153"/>
-      <c r="M35" s="153"/>
-      <c r="N35" s="153"/>
-      <c r="O35" s="154"/>
+      <c r="J35" s="162"/>
+      <c r="K35" s="163"/>
+      <c r="L35" s="163"/>
+      <c r="M35" s="163"/>
+      <c r="N35" s="163"/>
+      <c r="O35" s="164"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
@@ -4539,10 +4541,10 @@
       <c r="B36" s="84"/>
       <c r="C36" s="80"/>
       <c r="D36" s="64"/>
-      <c r="E36" s="173"/>
-      <c r="F36" s="174"/>
+      <c r="E36" s="157"/>
+      <c r="F36" s="158"/>
       <c r="G36" s="108"/>
-      <c r="H36" s="177"/>
+      <c r="H36" s="153"/>
       <c r="I36" s="4"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -4583,17 +4585,17 @@
       <c r="B37" s="84"/>
       <c r="C37" s="80"/>
       <c r="D37" s="65"/>
-      <c r="E37" s="173"/>
-      <c r="F37" s="174"/>
+      <c r="E37" s="157"/>
+      <c r="F37" s="158"/>
       <c r="G37" s="108"/>
-      <c r="H37" s="177"/>
+      <c r="H37" s="153"/>
       <c r="I37" s="5"/>
-      <c r="J37" s="155"/>
-      <c r="K37" s="156"/>
-      <c r="L37" s="156"/>
-      <c r="M37" s="156"/>
-      <c r="N37" s="156"/>
-      <c r="O37" s="157"/>
+      <c r="J37" s="167"/>
+      <c r="K37" s="168"/>
+      <c r="L37" s="168"/>
+      <c r="M37" s="168"/>
+      <c r="N37" s="168"/>
+      <c r="O37" s="169"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
@@ -4627,10 +4629,10 @@
       <c r="B38" s="84"/>
       <c r="C38" s="80"/>
       <c r="D38" s="83"/>
-      <c r="E38" s="171"/>
-      <c r="F38" s="171"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
       <c r="G38" s="108"/>
-      <c r="H38" s="177"/>
+      <c r="H38" s="153"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -4671,17 +4673,17 @@
       <c r="B39" s="92"/>
       <c r="C39" s="80"/>
       <c r="D39" s="83"/>
-      <c r="E39" s="171"/>
-      <c r="F39" s="171"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
       <c r="G39" s="108"/>
-      <c r="H39" s="177"/>
+      <c r="H39" s="153"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="152"/>
-      <c r="K39" s="153"/>
-      <c r="L39" s="153"/>
-      <c r="M39" s="153"/>
-      <c r="N39" s="153"/>
-      <c r="O39" s="154"/>
+      <c r="J39" s="162"/>
+      <c r="K39" s="163"/>
+      <c r="L39" s="163"/>
+      <c r="M39" s="163"/>
+      <c r="N39" s="163"/>
+      <c r="O39" s="164"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
@@ -4715,10 +4717,10 @@
       <c r="B40" s="84"/>
       <c r="C40" s="80"/>
       <c r="D40" s="83"/>
-      <c r="E40" s="171"/>
-      <c r="F40" s="171"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
       <c r="G40" s="108"/>
-      <c r="H40" s="177"/>
+      <c r="H40" s="153"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -4759,10 +4761,10 @@
       <c r="B41" s="84"/>
       <c r="C41" s="80"/>
       <c r="D41" s="83"/>
-      <c r="E41" s="171"/>
-      <c r="F41" s="171"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
       <c r="G41" s="108"/>
-      <c r="H41" s="177"/>
+      <c r="H41" s="153"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -4803,10 +4805,10 @@
       <c r="B42" s="84"/>
       <c r="C42" s="80"/>
       <c r="D42" s="83"/>
-      <c r="E42" s="171"/>
-      <c r="F42" s="171"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="150"/>
       <c r="G42" s="108"/>
-      <c r="H42" s="177"/>
+      <c r="H42" s="153"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
@@ -4847,10 +4849,10 @@
       <c r="B43" s="84"/>
       <c r="C43" s="80"/>
       <c r="D43" s="83"/>
-      <c r="E43" s="171"/>
-      <c r="F43" s="171"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
       <c r="G43" s="108"/>
-      <c r="H43" s="177"/>
+      <c r="H43" s="153"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
@@ -4891,9 +4893,9 @@
       <c r="B44" s="84"/>
       <c r="C44" s="80"/>
       <c r="D44" s="83"/>
-      <c r="E44" s="171"/>
-      <c r="F44" s="171"/>
-      <c r="H44" s="177"/>
+      <c r="E44" s="150"/>
+      <c r="F44" s="150"/>
+      <c r="H44" s="153"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
@@ -4934,10 +4936,10 @@
       <c r="B45" s="84"/>
       <c r="C45" s="80"/>
       <c r="D45" s="83"/>
-      <c r="E45" s="171"/>
-      <c r="F45" s="171"/>
+      <c r="E45" s="150"/>
+      <c r="F45" s="150"/>
       <c r="G45" s="108"/>
-      <c r="H45" s="177"/>
+      <c r="H45" s="153"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -4978,10 +4980,10 @@
       <c r="B46" s="84"/>
       <c r="C46" s="80"/>
       <c r="D46" s="83"/>
-      <c r="E46" s="171"/>
-      <c r="F46" s="171"/>
+      <c r="E46" s="150"/>
+      <c r="F46" s="150"/>
       <c r="G46" s="108"/>
-      <c r="H46" s="177"/>
+      <c r="H46" s="153"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
@@ -5022,10 +5024,10 @@
       <c r="B47" s="84"/>
       <c r="C47" s="80"/>
       <c r="D47" s="83"/>
-      <c r="E47" s="171"/>
-      <c r="F47" s="171"/>
+      <c r="E47" s="150"/>
+      <c r="F47" s="150"/>
       <c r="G47" s="108"/>
-      <c r="H47" s="177"/>
+      <c r="H47" s="153"/>
       <c r="I47" s="43"/>
       <c r="J47" s="37"/>
       <c r="K47" s="2"/>
@@ -5066,10 +5068,10 @@
       <c r="B48" s="84"/>
       <c r="C48" s="80"/>
       <c r="D48" s="83"/>
-      <c r="E48" s="171"/>
-      <c r="F48" s="171"/>
+      <c r="E48" s="150"/>
+      <c r="F48" s="150"/>
       <c r="G48" s="63"/>
-      <c r="H48" s="177"/>
+      <c r="H48" s="153"/>
       <c r="I48" s="43"/>
       <c r="J48" s="37"/>
       <c r="K48" s="2"/>
@@ -5110,10 +5112,10 @@
       <c r="B49" s="85"/>
       <c r="C49" s="80"/>
       <c r="D49" s="58"/>
-      <c r="E49" s="171"/>
-      <c r="F49" s="171"/>
+      <c r="E49" s="150"/>
+      <c r="F49" s="150"/>
       <c r="G49" s="63"/>
-      <c r="H49" s="177"/>
+      <c r="H49" s="153"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
@@ -5154,10 +5156,10 @@
       <c r="B50" s="81"/>
       <c r="C50" s="80"/>
       <c r="D50" s="58"/>
-      <c r="E50" s="171"/>
-      <c r="F50" s="171"/>
+      <c r="E50" s="150"/>
+      <c r="F50" s="150"/>
       <c r="G50" s="63"/>
-      <c r="H50" s="177"/>
+      <c r="H50" s="153"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
@@ -5198,10 +5200,10 @@
       <c r="B51" s="81"/>
       <c r="C51" s="80"/>
       <c r="D51" s="58"/>
-      <c r="E51" s="171"/>
-      <c r="F51" s="171"/>
+      <c r="E51" s="150"/>
+      <c r="F51" s="150"/>
       <c r="G51" s="63"/>
-      <c r="H51" s="177"/>
+      <c r="H51" s="153"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
@@ -5242,10 +5244,10 @@
       <c r="B52" s="81"/>
       <c r="C52" s="80"/>
       <c r="D52" s="58"/>
-      <c r="E52" s="171"/>
-      <c r="F52" s="171"/>
+      <c r="E52" s="150"/>
+      <c r="F52" s="150"/>
       <c r="G52" s="63"/>
-      <c r="H52" s="177"/>
+      <c r="H52" s="153"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
@@ -5286,10 +5288,10 @@
       <c r="B53" s="81"/>
       <c r="C53" s="80"/>
       <c r="D53" s="58"/>
-      <c r="E53" s="171"/>
-      <c r="F53" s="171"/>
+      <c r="E53" s="150"/>
+      <c r="F53" s="150"/>
       <c r="G53" s="63"/>
-      <c r="H53" s="177"/>
+      <c r="H53" s="153"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
@@ -5330,10 +5332,10 @@
       <c r="B54" s="81"/>
       <c r="C54" s="80"/>
       <c r="D54" s="58"/>
-      <c r="E54" s="171"/>
-      <c r="F54" s="171"/>
+      <c r="E54" s="150"/>
+      <c r="F54" s="150"/>
       <c r="G54" s="63"/>
-      <c r="H54" s="177"/>
+      <c r="H54" s="153"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
@@ -5374,10 +5376,10 @@
       <c r="B55" s="58"/>
       <c r="C55" s="80"/>
       <c r="D55" s="58"/>
-      <c r="E55" s="171"/>
-      <c r="F55" s="171"/>
+      <c r="E55" s="150"/>
+      <c r="F55" s="150"/>
       <c r="G55" s="63"/>
-      <c r="H55" s="177"/>
+      <c r="H55" s="153"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -5418,10 +5420,10 @@
       <c r="B56" s="58"/>
       <c r="C56" s="80"/>
       <c r="D56" s="58"/>
-      <c r="E56" s="171"/>
-      <c r="F56" s="171"/>
+      <c r="E56" s="150"/>
+      <c r="F56" s="150"/>
       <c r="G56" s="63"/>
-      <c r="H56" s="177"/>
+      <c r="H56" s="153"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -5462,10 +5464,10 @@
       <c r="B57" s="58"/>
       <c r="C57" s="80"/>
       <c r="D57" s="58"/>
-      <c r="E57" s="171"/>
-      <c r="F57" s="171"/>
+      <c r="E57" s="150"/>
+      <c r="F57" s="150"/>
       <c r="G57" s="63"/>
-      <c r="H57" s="177"/>
+      <c r="H57" s="153"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
@@ -5506,10 +5508,10 @@
       <c r="B58" s="58"/>
       <c r="C58" s="80"/>
       <c r="D58" s="58"/>
-      <c r="E58" s="171"/>
-      <c r="F58" s="171"/>
+      <c r="E58" s="150"/>
+      <c r="F58" s="150"/>
       <c r="G58" s="63"/>
-      <c r="H58" s="177"/>
+      <c r="H58" s="153"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
@@ -5550,10 +5552,10 @@
       <c r="B59" s="58"/>
       <c r="C59" s="80"/>
       <c r="D59" s="58"/>
-      <c r="E59" s="171"/>
-      <c r="F59" s="171"/>
+      <c r="E59" s="150"/>
+      <c r="F59" s="150"/>
       <c r="G59" s="63"/>
-      <c r="H59" s="177"/>
+      <c r="H59" s="153"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
@@ -5594,10 +5596,10 @@
       <c r="B60" s="58"/>
       <c r="C60" s="80"/>
       <c r="D60" s="58"/>
-      <c r="E60" s="171"/>
-      <c r="F60" s="171"/>
+      <c r="E60" s="150"/>
+      <c r="F60" s="150"/>
       <c r="G60" s="63"/>
-      <c r="H60" s="177"/>
+      <c r="H60" s="153"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
@@ -5640,13 +5642,13 @@
       </c>
       <c r="C61" s="132"/>
       <c r="D61" s="133"/>
-      <c r="E61" s="179"/>
-      <c r="F61" s="179"/>
+      <c r="E61" s="155"/>
+      <c r="F61" s="155"/>
       <c r="G61" s="36">
         <f>SUM(G36:G60)</f>
         <v>0</v>
       </c>
-      <c r="H61" s="178"/>
+      <c r="H61" s="154"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
@@ -5737,7 +5739,7 @@
       <c r="F63" s="27"/>
       <c r="G63" s="51">
         <f>G61+G19+G28+G62</f>
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="H63" s="44"/>
       <c r="I63" s="2"/>
@@ -5916,7 +5918,7 @@
       </c>
       <c r="C67" s="58">
         <f>G63</f>
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="D67" s="2"/>
       <c r="F67" s="2"/>
@@ -5964,7 +5966,7 @@
       </c>
       <c r="C68" s="60">
         <f>C66-C67</f>
-        <v>419</v>
+        <v>357</v>
       </c>
       <c r="D68" s="2"/>
       <c r="F68" s="2"/>
@@ -11847,6 +11849,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="J35:O35"/>
+    <mergeCell ref="J37:O37"/>
+    <mergeCell ref="J39:O39"/>
+    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="H5:H19"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="J29:O29"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
     <mergeCell ref="E57:F57"/>
     <mergeCell ref="H22:H28"/>
     <mergeCell ref="H35:H61"/>
@@ -11863,32 +11891,6 @@
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="J29:O29"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J22:O22"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="J35:O35"/>
-    <mergeCell ref="J37:O37"/>
-    <mergeCell ref="J39:O39"/>
-    <mergeCell ref="J30:O30"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="H5:H19"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <dataValidations count="6">
@@ -25596,10 +25598,10 @@
       <c r="AH1" s="70"/>
     </row>
     <row r="2" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="188" t="s">
+      <c r="A2" s="182" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="192">
+      <c r="B2" s="186">
         <v>1</v>
       </c>
       <c r="C2" s="74" t="s">
@@ -25655,8 +25657,8 @@
       <c r="AH2" s="71"/>
     </row>
     <row r="3" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="189"/>
-      <c r="B3" s="186"/>
+      <c r="A3" s="183"/>
+      <c r="B3" s="180"/>
       <c r="C3" s="76" t="s">
         <v>144</v>
       </c>
@@ -25707,8 +25709,8 @@
       <c r="AH3" s="71"/>
     </row>
     <row r="4" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="189"/>
-      <c r="B4" s="186"/>
+      <c r="A4" s="183"/>
+      <c r="B4" s="180"/>
       <c r="C4" s="76" t="s">
         <v>145</v>
       </c>
@@ -25759,8 +25761,8 @@
       <c r="AH4" s="71"/>
     </row>
     <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="189"/>
-      <c r="B5" s="191"/>
+      <c r="A5" s="183"/>
+      <c r="B5" s="185"/>
       <c r="C5" s="76" t="s">
         <v>146</v>
       </c>
@@ -25811,8 +25813,8 @@
       <c r="AH5" s="71"/>
     </row>
     <row r="6" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="189"/>
-      <c r="B6" s="186">
+      <c r="A6" s="183"/>
+      <c r="B6" s="180">
         <v>2</v>
       </c>
       <c r="C6" s="76" t="s">
@@ -25867,8 +25869,8 @@
       <c r="AH6" s="71"/>
     </row>
     <row r="7" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="189"/>
-      <c r="B7" s="186"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="180"/>
       <c r="C7" s="76" t="s">
         <v>148</v>
       </c>
@@ -25919,8 +25921,8 @@
       <c r="AH7" s="71"/>
     </row>
     <row r="8" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="189"/>
-      <c r="B8" s="186"/>
+      <c r="A8" s="183"/>
+      <c r="B8" s="180"/>
       <c r="C8" s="76" t="s">
         <v>149</v>
       </c>
@@ -25970,8 +25972,8 @@
       <c r="AH8" s="71"/>
     </row>
     <row r="9" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="189"/>
-      <c r="B9" s="186"/>
+      <c r="A9" s="183"/>
+      <c r="B9" s="180"/>
       <c r="C9" s="76" t="s">
         <v>150</v>
       </c>
@@ -26026,8 +26028,8 @@
       <c r="AH9" s="71"/>
     </row>
     <row r="10" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="189"/>
-      <c r="B10" s="186">
+      <c r="A10" s="183"/>
+      <c r="B10" s="180">
         <v>3</v>
       </c>
       <c r="C10" s="76" t="s">
@@ -26085,8 +26087,8 @@
       <c r="AH10" s="71"/>
     </row>
     <row r="11" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="189"/>
-      <c r="B11" s="186"/>
+      <c r="A11" s="183"/>
+      <c r="B11" s="180"/>
       <c r="C11" s="76" t="s">
         <v>155</v>
       </c>
@@ -26141,8 +26143,8 @@
       <c r="AH11" s="71"/>
     </row>
     <row r="12" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="189"/>
-      <c r="B12" s="186"/>
+      <c r="A12" s="183"/>
+      <c r="B12" s="180"/>
       <c r="C12" s="76" t="s">
         <v>157</v>
       </c>
@@ -26200,8 +26202,8 @@
       <c r="AH12" s="71"/>
     </row>
     <row r="13" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="189"/>
-      <c r="B13" s="186"/>
+      <c r="A13" s="183"/>
+      <c r="B13" s="180"/>
       <c r="C13" s="76" t="s">
         <v>162</v>
       </c>
@@ -26267,8 +26269,8 @@
       <c r="AH13" s="71"/>
     </row>
     <row r="14" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="189"/>
-      <c r="B14" s="186">
+      <c r="A14" s="183"/>
+      <c r="B14" s="180">
         <v>4</v>
       </c>
       <c r="C14" s="76" t="s">
@@ -26335,8 +26337,8 @@
       <c r="AH14" s="71"/>
     </row>
     <row r="15" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="189"/>
-      <c r="B15" s="186"/>
+      <c r="A15" s="183"/>
+      <c r="B15" s="180"/>
       <c r="C15" s="76" t="s">
         <v>165</v>
       </c>
@@ -26399,8 +26401,8 @@
       <c r="AH15" s="71"/>
     </row>
     <row r="16" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="189"/>
-      <c r="B16" s="186"/>
+      <c r="A16" s="183"/>
+      <c r="B16" s="180"/>
       <c r="C16" s="76" t="s">
         <v>166</v>
       </c>
@@ -26463,8 +26465,8 @@
       <c r="AH16" s="71"/>
     </row>
     <row r="17" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="189"/>
-      <c r="B17" s="186"/>
+      <c r="A17" s="183"/>
+      <c r="B17" s="180"/>
       <c r="C17" s="76" t="s">
         <v>167</v>
       </c>
@@ -26527,8 +26529,8 @@
       <c r="AH17" s="71"/>
     </row>
     <row r="18" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="189"/>
-      <c r="B18" s="186">
+      <c r="A18" s="183"/>
+      <c r="B18" s="180">
         <v>5</v>
       </c>
       <c r="C18" s="76" t="s">
@@ -26595,8 +26597,8 @@
       <c r="AH18" s="71"/>
     </row>
     <row r="19" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="189"/>
-      <c r="B19" s="186"/>
+      <c r="A19" s="183"/>
+      <c r="B19" s="180"/>
       <c r="C19" s="76" t="s">
         <v>169</v>
       </c>
@@ -26660,8 +26662,8 @@
       <c r="AH19" s="71"/>
     </row>
     <row r="20" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="189"/>
-      <c r="B20" s="186"/>
+      <c r="A20" s="183"/>
+      <c r="B20" s="180"/>
       <c r="C20" s="76" t="s">
         <v>170</v>
       </c>
@@ -26724,8 +26726,8 @@
       <c r="AH20" s="71"/>
     </row>
     <row r="21" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="189"/>
-      <c r="B21" s="186"/>
+      <c r="A21" s="183"/>
+      <c r="B21" s="180"/>
       <c r="C21" s="76" t="s">
         <v>171</v>
       </c>
@@ -26788,8 +26790,8 @@
       <c r="AG21" s="87"/>
     </row>
     <row r="22" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="189"/>
-      <c r="B22" s="186">
+      <c r="A22" s="183"/>
+      <c r="B22" s="180">
         <v>6</v>
       </c>
       <c r="C22" s="76" t="s">
@@ -26855,8 +26857,8 @@
       <c r="AG22" s="87"/>
     </row>
     <row r="23" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="189"/>
-      <c r="B23" s="186"/>
+      <c r="A23" s="183"/>
+      <c r="B23" s="180"/>
       <c r="C23" s="76" t="s">
         <v>173</v>
       </c>
@@ -26921,8 +26923,8 @@
       <c r="AG23" s="87"/>
     </row>
     <row r="24" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="189"/>
-      <c r="B24" s="186"/>
+      <c r="A24" s="183"/>
+      <c r="B24" s="180"/>
       <c r="C24" s="76" t="s">
         <v>174</v>
       </c>
@@ -26983,8 +26985,8 @@
       <c r="AG24" s="87"/>
     </row>
     <row r="25" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="189"/>
-      <c r="B25" s="186"/>
+      <c r="A25" s="183"/>
+      <c r="B25" s="180"/>
       <c r="C25" s="76" t="s">
         <v>175</v>
       </c>
@@ -27042,8 +27044,8 @@
       <c r="AG25" s="71"/>
     </row>
     <row r="26" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="189"/>
-      <c r="B26" s="186">
+      <c r="A26" s="183"/>
+      <c r="B26" s="180">
         <v>7</v>
       </c>
       <c r="C26" s="76" t="s">
@@ -27103,8 +27105,8 @@
       <c r="AG26" s="71"/>
     </row>
     <row r="27" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="189"/>
-      <c r="B27" s="186"/>
+      <c r="A27" s="183"/>
+      <c r="B27" s="180"/>
       <c r="C27" s="76" t="s">
         <v>177</v>
       </c>
@@ -27160,8 +27162,8 @@
       </c>
     </row>
     <row r="28" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="189"/>
-      <c r="B28" s="186"/>
+      <c r="A28" s="183"/>
+      <c r="B28" s="180"/>
       <c r="C28" s="76" t="s">
         <v>179</v>
       </c>
@@ -27217,8 +27219,8 @@
       </c>
     </row>
     <row r="29" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="189"/>
-      <c r="B29" s="186"/>
+      <c r="A29" s="183"/>
+      <c r="B29" s="180"/>
       <c r="C29" s="76" t="s">
         <v>181</v>
       </c>
@@ -27275,8 +27277,8 @@
       </c>
     </row>
     <row r="30" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="189"/>
-      <c r="B30" s="186">
+      <c r="A30" s="183"/>
+      <c r="B30" s="180">
         <v>8</v>
       </c>
       <c r="C30" s="76" t="s">
@@ -27334,8 +27336,8 @@
       </c>
     </row>
     <row r="31" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="189"/>
-      <c r="B31" s="186"/>
+      <c r="A31" s="183"/>
+      <c r="B31" s="180"/>
       <c r="C31" s="76" t="s">
         <v>186</v>
       </c>
@@ -27390,8 +27392,8 @@
       </c>
     </row>
     <row r="32" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="189"/>
-      <c r="B32" s="186"/>
+      <c r="A32" s="183"/>
+      <c r="B32" s="180"/>
       <c r="C32" s="76" t="s">
         <v>188</v>
       </c>
@@ -27441,8 +27443,8 @@
       </c>
     </row>
     <row r="33" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="189"/>
-      <c r="B33" s="186"/>
+      <c r="A33" s="183"/>
+      <c r="B33" s="180"/>
       <c r="C33" s="76" t="s">
         <v>189</v>
       </c>
@@ -27488,8 +27490,8 @@
       <c r="AA33" s="71"/>
     </row>
     <row r="34" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="189"/>
-      <c r="B34" s="186">
+      <c r="A34" s="183"/>
+      <c r="B34" s="180">
         <v>9</v>
       </c>
       <c r="C34" s="76" t="s">
@@ -27535,8 +27537,8 @@
       <c r="AA34" s="71"/>
     </row>
     <row r="35" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="189"/>
-      <c r="B35" s="186"/>
+      <c r="A35" s="183"/>
+      <c r="B35" s="180"/>
       <c r="C35" s="76" t="s">
         <v>191</v>
       </c>
@@ -27579,8 +27581,8 @@
       <c r="AA35" s="71"/>
     </row>
     <row r="36" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="189"/>
-      <c r="B36" s="186"/>
+      <c r="A36" s="183"/>
+      <c r="B36" s="180"/>
       <c r="C36" s="76" t="s">
         <v>192</v>
       </c>
@@ -27625,8 +27627,8 @@
       <c r="AA36" s="71"/>
     </row>
     <row r="37" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="189"/>
-      <c r="B37" s="186"/>
+      <c r="A37" s="183"/>
+      <c r="B37" s="180"/>
       <c r="C37" s="76" t="s">
         <v>193</v>
       </c>
@@ -27669,8 +27671,8 @@
       <c r="AA37" s="71"/>
     </row>
     <row r="38" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="189"/>
-      <c r="B38" s="186">
+      <c r="A38" s="183"/>
+      <c r="B38" s="180">
         <v>10</v>
       </c>
       <c r="C38" s="76" t="s">
@@ -27718,8 +27720,8 @@
       <c r="AH38" s="71"/>
     </row>
     <row r="39" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="189"/>
-      <c r="B39" s="186"/>
+      <c r="A39" s="183"/>
+      <c r="B39" s="180"/>
       <c r="C39" s="76" t="s">
         <v>195</v>
       </c>
@@ -27764,8 +27766,8 @@
       <c r="AH39" s="71"/>
     </row>
     <row r="40" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="189"/>
-      <c r="B40" s="186"/>
+      <c r="A40" s="183"/>
+      <c r="B40" s="180"/>
       <c r="C40" s="76" t="s">
         <v>196</v>
       </c>
@@ -27809,8 +27811,8 @@
       <c r="AH40" s="71"/>
     </row>
     <row r="41" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="189"/>
-      <c r="B41" s="186"/>
+      <c r="A41" s="183"/>
+      <c r="B41" s="180"/>
       <c r="C41" s="76" t="s">
         <v>197</v>
       </c>
@@ -27860,8 +27862,8 @@
       <c r="AH41" s="71"/>
     </row>
     <row r="42" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="189"/>
-      <c r="B42" s="186">
+      <c r="A42" s="183"/>
+      <c r="B42" s="180">
         <v>11</v>
       </c>
       <c r="C42" s="76" t="s">
@@ -27914,8 +27916,8 @@
       <c r="AH42" s="71"/>
     </row>
     <row r="43" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A43" s="189"/>
-      <c r="B43" s="186"/>
+      <c r="A43" s="183"/>
+      <c r="B43" s="180"/>
       <c r="C43" s="76" t="s">
         <v>199</v>
       </c>
@@ -27968,8 +27970,8 @@
       <c r="AH43" s="71"/>
     </row>
     <row r="44" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A44" s="189"/>
-      <c r="B44" s="186"/>
+      <c r="A44" s="183"/>
+      <c r="B44" s="180"/>
       <c r="C44" s="76" t="s">
         <v>200</v>
       </c>
@@ -28019,8 +28021,8 @@
       <c r="AH44" s="71"/>
     </row>
     <row r="45" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="189"/>
-      <c r="B45" s="186"/>
+      <c r="A45" s="183"/>
+      <c r="B45" s="180"/>
       <c r="C45" s="76" t="s">
         <v>201</v>
       </c>
@@ -28070,8 +28072,8 @@
       <c r="AH45" s="71"/>
     </row>
     <row r="46" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="189"/>
-      <c r="B46" s="186">
+      <c r="A46" s="183"/>
+      <c r="B46" s="180">
         <v>12</v>
       </c>
       <c r="C46" s="76" t="s">
@@ -28125,8 +28127,8 @@
       <c r="AH46" s="71"/>
     </row>
     <row r="47" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="189"/>
-      <c r="B47" s="186"/>
+      <c r="A47" s="183"/>
+      <c r="B47" s="180"/>
       <c r="C47" s="76" t="s">
         <v>203</v>
       </c>
@@ -28176,8 +28178,8 @@
       <c r="AH47" s="71"/>
     </row>
     <row r="48" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="189"/>
-      <c r="B48" s="186"/>
+      <c r="A48" s="183"/>
+      <c r="B48" s="180"/>
       <c r="C48" s="76" t="s">
         <v>204</v>
       </c>
@@ -28229,8 +28231,8 @@
       <c r="AH48" s="71"/>
     </row>
     <row r="49" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A49" s="189"/>
-      <c r="B49" s="186"/>
+      <c r="A49" s="183"/>
+      <c r="B49" s="180"/>
       <c r="C49" s="76" t="s">
         <v>205</v>
       </c>
@@ -28280,8 +28282,8 @@
       <c r="AH49" s="71"/>
     </row>
     <row r="50" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="189"/>
-      <c r="B50" s="186">
+      <c r="A50" s="183"/>
+      <c r="B50" s="180">
         <v>13</v>
       </c>
       <c r="C50" s="76" t="s">
@@ -28335,8 +28337,8 @@
       <c r="AH50" s="71"/>
     </row>
     <row r="51" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="189"/>
-      <c r="B51" s="186"/>
+      <c r="A51" s="183"/>
+      <c r="B51" s="180"/>
       <c r="C51" s="76" t="s">
         <v>207</v>
       </c>
@@ -28386,8 +28388,8 @@
       <c r="AH51" s="71"/>
     </row>
     <row r="52" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="189"/>
-      <c r="B52" s="186"/>
+      <c r="A52" s="183"/>
+      <c r="B52" s="180"/>
       <c r="C52" s="76" t="s">
         <v>208</v>
       </c>
@@ -28436,8 +28438,8 @@
       <c r="AH52" s="71"/>
     </row>
     <row r="53" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A53" s="189"/>
-      <c r="B53" s="186"/>
+      <c r="A53" s="183"/>
+      <c r="B53" s="180"/>
       <c r="C53" s="76" t="s">
         <v>209</v>
       </c>
@@ -28487,8 +28489,8 @@
       <c r="AH53" s="71"/>
     </row>
     <row r="54" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="189"/>
-      <c r="B54" s="186">
+      <c r="A54" s="183"/>
+      <c r="B54" s="180">
         <v>14</v>
       </c>
       <c r="C54" s="76" t="s">
@@ -28542,8 +28544,8 @@
       <c r="AH54" s="71"/>
     </row>
     <row r="55" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="189"/>
-      <c r="B55" s="186"/>
+      <c r="A55" s="183"/>
+      <c r="B55" s="180"/>
       <c r="C55" s="76" t="s">
         <v>211</v>
       </c>
@@ -28594,8 +28596,8 @@
       <c r="AH55" s="71"/>
     </row>
     <row r="56" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A56" s="189"/>
-      <c r="B56" s="186"/>
+      <c r="A56" s="183"/>
+      <c r="B56" s="180"/>
       <c r="C56" s="76" t="s">
         <v>212</v>
       </c>
@@ -28645,8 +28647,8 @@
       <c r="AH56" s="71"/>
     </row>
     <row r="57" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A57" s="189"/>
-      <c r="B57" s="186"/>
+      <c r="A57" s="183"/>
+      <c r="B57" s="180"/>
       <c r="C57" s="76" t="s">
         <v>213</v>
       </c>
@@ -28697,8 +28699,8 @@
       <c r="AH57" s="71"/>
     </row>
     <row r="58" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="189"/>
-      <c r="B58" s="186">
+      <c r="A58" s="183"/>
+      <c r="B58" s="180">
         <v>15</v>
       </c>
       <c r="C58" s="76" t="s">
@@ -28753,8 +28755,8 @@
       <c r="AH58" s="71"/>
     </row>
     <row r="59" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A59" s="189"/>
-      <c r="B59" s="186"/>
+      <c r="A59" s="183"/>
+      <c r="B59" s="180"/>
       <c r="C59" s="76" t="s">
         <v>215</v>
       </c>
@@ -28805,8 +28807,8 @@
       <c r="AH59" s="71"/>
     </row>
     <row r="60" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A60" s="189"/>
-      <c r="B60" s="186"/>
+      <c r="A60" s="183"/>
+      <c r="B60" s="180"/>
       <c r="C60" s="76" t="s">
         <v>216</v>
       </c>
@@ -28857,8 +28859,8 @@
       <c r="AH60" s="71"/>
     </row>
     <row r="61" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A61" s="190"/>
-      <c r="B61" s="187"/>
+      <c r="A61" s="184"/>
+      <c r="B61" s="181"/>
       <c r="C61" s="78" t="s">
         <v>217</v>
       </c>
@@ -28909,10 +28911,10 @@
       <c r="AH61" s="71"/>
     </row>
     <row r="62" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A62" s="188" t="s">
+      <c r="A62" s="182" t="s">
         <v>136</v>
       </c>
-      <c r="B62" s="191">
+      <c r="B62" s="185">
         <v>16</v>
       </c>
       <c r="C62" s="76" t="s">
@@ -28964,8 +28966,8 @@
       <c r="AH62" s="71"/>
     </row>
     <row r="63" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A63" s="189"/>
-      <c r="B63" s="186"/>
+      <c r="A63" s="183"/>
+      <c r="B63" s="180"/>
       <c r="C63" s="76" t="s">
         <v>219</v>
       </c>
@@ -29015,8 +29017,8 @@
       <c r="AH63" s="71"/>
     </row>
     <row r="64" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A64" s="189"/>
-      <c r="B64" s="186"/>
+      <c r="A64" s="183"/>
+      <c r="B64" s="180"/>
       <c r="C64" s="76" t="s">
         <v>220</v>
       </c>
@@ -29066,8 +29068,8 @@
       <c r="AH64" s="71"/>
     </row>
     <row r="65" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A65" s="189"/>
-      <c r="B65" s="186"/>
+      <c r="A65" s="183"/>
+      <c r="B65" s="180"/>
       <c r="C65" s="76" t="s">
         <v>221</v>
       </c>
@@ -29117,8 +29119,8 @@
       <c r="AH65" s="71"/>
     </row>
     <row r="66" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A66" s="189"/>
-      <c r="B66" s="186">
+      <c r="A66" s="183"/>
+      <c r="B66" s="180">
         <v>17</v>
       </c>
       <c r="C66" s="76" t="s">
@@ -29170,8 +29172,8 @@
       <c r="AH66" s="71"/>
     </row>
     <row r="67" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A67" s="189"/>
-      <c r="B67" s="186"/>
+      <c r="A67" s="183"/>
+      <c r="B67" s="180"/>
       <c r="C67" s="76" t="s">
         <v>223</v>
       </c>
@@ -29221,8 +29223,8 @@
       <c r="AH67" s="71"/>
     </row>
     <row r="68" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A68" s="189"/>
-      <c r="B68" s="186"/>
+      <c r="A68" s="183"/>
+      <c r="B68" s="180"/>
       <c r="C68" s="76" t="s">
         <v>224</v>
       </c>
@@ -29272,8 +29274,8 @@
       <c r="AH68" s="71"/>
     </row>
     <row r="69" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A69" s="189"/>
-      <c r="B69" s="186"/>
+      <c r="A69" s="183"/>
+      <c r="B69" s="180"/>
       <c r="C69" s="76" t="s">
         <v>225</v>
       </c>
@@ -29323,8 +29325,8 @@
       <c r="AH69" s="71"/>
     </row>
     <row r="70" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A70" s="189"/>
-      <c r="B70" s="186">
+      <c r="A70" s="183"/>
+      <c r="B70" s="180">
         <v>18</v>
       </c>
       <c r="C70" s="76" t="s">
@@ -29376,8 +29378,8 @@
       <c r="AH70" s="71"/>
     </row>
     <row r="71" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A71" s="189"/>
-      <c r="B71" s="186"/>
+      <c r="A71" s="183"/>
+      <c r="B71" s="180"/>
       <c r="C71" s="76" t="s">
         <v>227</v>
       </c>
@@ -29427,8 +29429,8 @@
       <c r="AH71" s="71"/>
     </row>
     <row r="72" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A72" s="189"/>
-      <c r="B72" s="186"/>
+      <c r="A72" s="183"/>
+      <c r="B72" s="180"/>
       <c r="C72" s="76" t="s">
         <v>228</v>
       </c>
@@ -29478,8 +29480,8 @@
       <c r="AH72" s="71"/>
     </row>
     <row r="73" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A73" s="189"/>
-      <c r="B73" s="186"/>
+      <c r="A73" s="183"/>
+      <c r="B73" s="180"/>
       <c r="C73" s="76" t="s">
         <v>229</v>
       </c>
@@ -29529,8 +29531,8 @@
       <c r="AH73" s="71"/>
     </row>
     <row r="74" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A74" s="189"/>
-      <c r="B74" s="186">
+      <c r="A74" s="183"/>
+      <c r="B74" s="180">
         <v>19</v>
       </c>
       <c r="C74" s="76" t="s">
@@ -29582,8 +29584,8 @@
       <c r="AH74" s="71"/>
     </row>
     <row r="75" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A75" s="189"/>
-      <c r="B75" s="186"/>
+      <c r="A75" s="183"/>
+      <c r="B75" s="180"/>
       <c r="C75" s="76" t="s">
         <v>231</v>
       </c>
@@ -29633,8 +29635,8 @@
       <c r="AH75" s="71"/>
     </row>
     <row r="76" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A76" s="189"/>
-      <c r="B76" s="186"/>
+      <c r="A76" s="183"/>
+      <c r="B76" s="180"/>
       <c r="C76" s="76" t="s">
         <v>232</v>
       </c>
@@ -29684,8 +29686,8 @@
       <c r="AH76" s="71"/>
     </row>
     <row r="77" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A77" s="190"/>
-      <c r="B77" s="187"/>
+      <c r="A77" s="184"/>
+      <c r="B77" s="181"/>
       <c r="C77" s="78" t="s">
         <v>233</v>
       </c>
@@ -29872,10 +29874,10 @@
     <row r="80" spans="1:34" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="71"/>
       <c r="B80" s="71"/>
-      <c r="C80" s="182" t="s">
+      <c r="C80" s="189" t="s">
         <v>234</v>
       </c>
-      <c r="D80" s="183"/>
+      <c r="D80" s="190"/>
       <c r="E80" s="75">
         <v>60</v>
       </c>
@@ -29914,10 +29916,10 @@
     <row r="81" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A81" s="71"/>
       <c r="B81" s="71"/>
-      <c r="C81" s="184" t="s">
+      <c r="C81" s="191" t="s">
         <v>236</v>
       </c>
-      <c r="D81" s="185"/>
+      <c r="D81" s="192"/>
       <c r="E81" s="77">
         <v>322.5</v>
       </c>
@@ -29954,10 +29956,10 @@
     <row r="82" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A82" s="71"/>
       <c r="B82" s="71"/>
-      <c r="C82" s="184" t="s">
+      <c r="C82" s="191" t="s">
         <v>237</v>
       </c>
-      <c r="D82" s="185"/>
+      <c r="D82" s="192"/>
       <c r="E82" s="77">
         <v>35</v>
       </c>
@@ -29994,10 +29996,10 @@
     <row r="83" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" s="71"/>
       <c r="B83" s="71"/>
-      <c r="C83" s="184" t="s">
+      <c r="C83" s="191" t="s">
         <v>238</v>
       </c>
-      <c r="D83" s="185"/>
+      <c r="D83" s="192"/>
       <c r="E83" s="77">
         <v>287</v>
       </c>
@@ -30034,10 +30036,10 @@
     <row r="84" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A84" s="71"/>
       <c r="B84" s="71"/>
-      <c r="C84" s="184" t="s">
+      <c r="C84" s="191" t="s">
         <v>239</v>
       </c>
-      <c r="D84" s="185"/>
+      <c r="D84" s="192"/>
       <c r="E84" s="77">
         <v>60</v>
       </c>
@@ -30074,10 +30076,10 @@
     <row r="85" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A85" s="71"/>
       <c r="B85" s="71"/>
-      <c r="C85" s="180" t="s">
+      <c r="C85" s="187" t="s">
         <v>240</v>
       </c>
-      <c r="D85" s="181"/>
+      <c r="D85" s="188"/>
       <c r="E85" s="79">
         <f>Y79</f>
         <v>483</v>
@@ -30145,6 +30147,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
     <mergeCell ref="B66:B69"/>
     <mergeCell ref="B70:B73"/>
     <mergeCell ref="B74:B77"/>
@@ -30161,17 +30174,6 @@
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="B46:B49"/>
     <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -30543,15 +30545,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010060D9039996957B47A2820CA7E129C20F" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61c230ac488284aa1c9442a337ce5a7f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="65f98c99-c090-489b-8346-b847c18a5011" xmlns:ns3="d03ffd70-462c-4172-9015-a0cdff42c83c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4cea2a2cd68f11dd2b0a1fdf049f3860" ns2:_="" ns3:_="">
     <xsd:import namespace="65f98c99-c090-489b-8346-b847c18a5011"/>
@@ -30768,6 +30761,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -30791,14 +30793,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7D0D882-CBE1-41A5-A59C-C48B26872275}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{710DD5DA-09F7-4D7C-A10A-C80CDC0D2E16}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30817,6 +30811,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7D0D882-CBE1-41A5-A59C-C48B26872275}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F627C2A1-639E-4000-94D7-FA9740411AFB}">
   <ds:schemaRefs>
